--- a/Concessions.xlsx
+++ b/Concessions.xlsx
@@ -1,57 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phhun\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA90CD02-4AB0-4C43-9E92-2348FFD89AFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53120" yWindow="-260" windowWidth="23000" windowHeight="11520" tabRatio="726"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basketball Game Sales" sheetId="1" r:id="rId1"/>
     <sheet name="Calories" sheetId="3" r:id="rId2"/>
     <sheet name="Pivot" sheetId="9" r:id="rId3"/>
-    <sheet name="Fee Schedule" sheetId="4" r:id="rId4"/>
-    <sheet name="Revenue By Item" sheetId="6" r:id="rId5"/>
-    <sheet name="Calories-Solver" sheetId="10" r:id="rId6"/>
+    <sheet name="Calories-Solver" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basketball Game Sales'!$A$1:$F$200</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Calories-Solver'!$C$2:$C$15</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Calories-Solver'!$C$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Calories-Solver'!$C$2:$C$15</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Calories-Solver'!$C$16</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">2400</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">integer</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Calories-Solver'!$C$2:$C$15</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Calories-Solver'!$C$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Calories-Solver'!$C$2:$C$15</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Calories-Solver'!$C$16</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">2400</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">integer</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -145,12 +149,6 @@
     <t>Sum of Price</t>
   </si>
   <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Total Cut for Coach:</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -161,9 +159,6 @@
   </si>
   <si>
     <t>Offset</t>
-  </si>
-  <si>
-    <t>Small</t>
   </si>
   <si>
     <t>How many?</t>
@@ -178,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -224,12 +219,14 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -383,261 +380,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calories!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calories</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Calories!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>Beer</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bottled Water</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Chocolate Bar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Chocolate Dipped Cone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Gummy Bears</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Hamburger</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Hot Dog</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ice Cream Sandwich</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Licorice Rope</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Nachos</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Pizza</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Popcorn</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Popsicle</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Soda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calories!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>320.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>280.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>560.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>480.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="334469304"/>
-        <c:axId val="334471096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="334469304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334471096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="334471096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334469304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1800"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="John Foreman" refreshedDate="41304.551268750001" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="199">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="John Foreman" refreshedDate="41304.551268750001" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="199" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F200" sheet="Basketball Game Sales"/>
   </cacheSource>
@@ -2287,7 +2042,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2383,6 +2138,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2709,22 +2467,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2760,12 +2518,8 @@
       <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2">
-        <f>VLOOKUP(A2,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2781,12 +2535,8 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3">
-        <f>VLOOKUP(A3,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2802,12 +2552,8 @@
       <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4">
-        <f>VLOOKUP(A4,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2823,12 +2569,8 @@
       <c r="E5" s="4">
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <f>VLOOKUP(A5,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2844,12 +2586,8 @@
       <c r="E6" s="4">
         <v>2.5</v>
       </c>
-      <c r="F6">
-        <f>VLOOKUP(A6,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2865,12 +2603,8 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7">
-        <f>VLOOKUP(A7,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2886,12 +2620,8 @@
       <c r="E8" s="4">
         <v>1.5</v>
       </c>
-      <c r="F8">
-        <f>VLOOKUP(A8,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2907,12 +2637,8 @@
       <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9">
-        <f>VLOOKUP(A9,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2928,12 +2654,8 @@
       <c r="E10" s="4">
         <v>1.5</v>
       </c>
-      <c r="F10">
-        <f>VLOOKUP(A10,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2949,12 +2671,8 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11">
-        <f>VLOOKUP(A11,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2970,12 +2688,8 @@
       <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12">
-        <f>VLOOKUP(A12,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2991,12 +2705,8 @@
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13">
-        <f>VLOOKUP(A13,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3012,12 +2722,8 @@
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14">
-        <f>VLOOKUP(A14,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3033,12 +2739,8 @@
       <c r="E15" s="4">
         <v>1.5</v>
       </c>
-      <c r="F15">
-        <f>VLOOKUP(A15,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3054,12 +2756,8 @@
       <c r="E16" s="4">
         <v>1.5</v>
       </c>
-      <c r="F16">
-        <f>VLOOKUP(A16,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3075,12 +2773,8 @@
       <c r="E17" s="4">
         <v>0.5</v>
       </c>
-      <c r="F17">
-        <f>VLOOKUP(A17,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3096,12 +2790,8 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18">
-        <f>VLOOKUP(A18,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3117,12 +2807,8 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19">
-        <f>VLOOKUP(A19,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3138,12 +2824,8 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20">
-        <f>VLOOKUP(A20,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -3159,12 +2841,8 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21">
-        <f>VLOOKUP(A21,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3180,12 +2858,8 @@
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22">
-        <f>VLOOKUP(A22,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3201,12 +2875,8 @@
       <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="F23">
-        <f>VLOOKUP(A23,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -3222,12 +2892,8 @@
       <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F24">
-        <f>VLOOKUP(A24,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3243,12 +2909,8 @@
       <c r="E25" s="4">
         <v>1.5</v>
       </c>
-      <c r="F25">
-        <f>VLOOKUP(A25,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3264,12 +2926,8 @@
       <c r="E26" s="4">
         <v>1.5</v>
       </c>
-      <c r="F26">
-        <f>VLOOKUP(A26,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3285,12 +2943,8 @@
       <c r="E27" s="4">
         <v>1.5</v>
       </c>
-      <c r="F27">
-        <f>VLOOKUP(A27,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3306,12 +2960,8 @@
       <c r="E28" s="4">
         <v>1.5</v>
       </c>
-      <c r="F28">
-        <f>VLOOKUP(A28,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3327,12 +2977,8 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29">
-        <f>VLOOKUP(A29,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3348,12 +2994,8 @@
       <c r="E30" s="4">
         <v>2</v>
       </c>
-      <c r="F30">
-        <f>VLOOKUP(A30,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3369,12 +3011,8 @@
       <c r="E31" s="4">
         <v>1.5</v>
       </c>
-      <c r="F31">
-        <f>VLOOKUP(A31,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3390,12 +3028,8 @@
       <c r="E32" s="4">
         <v>2</v>
       </c>
-      <c r="F32">
-        <f>VLOOKUP(A32,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3411,12 +3045,8 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33">
-        <f>VLOOKUP(A33,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3432,12 +3062,8 @@
       <c r="E34" s="4">
         <v>1.5</v>
       </c>
-      <c r="F34">
-        <f>VLOOKUP(A34,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3453,12 +3079,8 @@
       <c r="E35" s="4">
         <v>1</v>
       </c>
-      <c r="F35">
-        <f>VLOOKUP(A35,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3474,12 +3096,8 @@
       <c r="E36" s="4">
         <v>1.5</v>
       </c>
-      <c r="F36">
-        <f>VLOOKUP(A36,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3495,12 +3113,8 @@
       <c r="E37" s="4">
         <v>2.5</v>
       </c>
-      <c r="F37">
-        <f>VLOOKUP(A37,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -3516,12 +3130,8 @@
       <c r="E38" s="4">
         <v>2.5</v>
       </c>
-      <c r="F38">
-        <f>VLOOKUP(A38,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3537,12 +3147,8 @@
       <c r="E39" s="4">
         <v>4</v>
       </c>
-      <c r="F39">
-        <f>VLOOKUP(A39,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -3558,12 +3164,8 @@
       <c r="E40" s="4">
         <v>1.5</v>
       </c>
-      <c r="F40">
-        <f>VLOOKUP(A40,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3579,12 +3181,8 @@
       <c r="E41" s="4">
         <v>1.5</v>
       </c>
-      <c r="F41">
-        <f>VLOOKUP(A41,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3600,12 +3198,8 @@
       <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="F42">
-        <f>VLOOKUP(A42,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3621,12 +3215,8 @@
       <c r="E43" s="4">
         <v>2</v>
       </c>
-      <c r="F43">
-        <f>VLOOKUP(A43,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3642,12 +3232,8 @@
       <c r="E44" s="4">
         <v>1</v>
       </c>
-      <c r="F44">
-        <f>VLOOKUP(A44,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3663,12 +3249,8 @@
       <c r="E45" s="4">
         <v>1.5</v>
       </c>
-      <c r="F45">
-        <f>VLOOKUP(A45,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3684,12 +3266,8 @@
       <c r="E46" s="4">
         <v>0.5</v>
       </c>
-      <c r="F46">
-        <f>VLOOKUP(A46,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3705,12 +3283,8 @@
       <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="F47">
-        <f>VLOOKUP(A47,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3726,12 +3300,8 @@
       <c r="E48" s="4">
         <v>1.5</v>
       </c>
-      <c r="F48">
-        <f>VLOOKUP(A48,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3747,12 +3317,8 @@
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="F49">
-        <f>VLOOKUP(A49,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3768,12 +3334,8 @@
       <c r="E50" s="4">
         <v>1.5</v>
       </c>
-      <c r="F50">
-        <f>VLOOKUP(A50,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3789,12 +3351,8 @@
       <c r="E51" s="4">
         <v>4</v>
       </c>
-      <c r="F51">
-        <f>VLOOKUP(A51,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -3810,12 +3368,8 @@
       <c r="E52" s="4">
         <v>1.5</v>
       </c>
-      <c r="F52">
-        <f>VLOOKUP(A52,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3831,12 +3385,8 @@
       <c r="E53" s="4">
         <v>1</v>
       </c>
-      <c r="F53">
-        <f>VLOOKUP(A53,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3852,12 +3402,8 @@
       <c r="E54" s="4">
         <v>4</v>
       </c>
-      <c r="F54">
-        <f>VLOOKUP(A54,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3873,12 +3419,8 @@
       <c r="E55" s="4">
         <v>2</v>
       </c>
-      <c r="F55">
-        <f>VLOOKUP(A55,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3894,12 +3436,8 @@
       <c r="E56" s="4">
         <v>1.5</v>
       </c>
-      <c r="F56">
-        <f>VLOOKUP(A56,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -3915,12 +3453,8 @@
       <c r="E57" s="4">
         <v>1</v>
       </c>
-      <c r="F57">
-        <f>VLOOKUP(A57,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3936,12 +3470,8 @@
       <c r="E58" s="4">
         <v>1</v>
       </c>
-      <c r="F58">
-        <f>VLOOKUP(A58,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3957,12 +3487,8 @@
       <c r="E59" s="4">
         <v>2</v>
       </c>
-      <c r="F59">
-        <f>VLOOKUP(A59,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -3978,12 +3504,8 @@
       <c r="E60" s="4">
         <v>1</v>
       </c>
-      <c r="F60">
-        <f>VLOOKUP(A60,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3999,12 +3521,8 @@
       <c r="E61" s="4">
         <v>2</v>
       </c>
-      <c r="F61">
-        <f>VLOOKUP(A61,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -4020,12 +3538,8 @@
       <c r="E62" s="4">
         <v>2</v>
       </c>
-      <c r="F62">
-        <f>VLOOKUP(A62,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -4041,12 +3555,8 @@
       <c r="E63" s="4">
         <v>1</v>
       </c>
-      <c r="F63">
-        <f>VLOOKUP(A63,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4062,12 +3572,8 @@
       <c r="E64" s="4">
         <v>0.5</v>
       </c>
-      <c r="F64">
-        <f>VLOOKUP(A64,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4083,12 +3589,8 @@
       <c r="E65" s="4">
         <v>2</v>
       </c>
-      <c r="F65">
-        <f>VLOOKUP(A65,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -4104,12 +3606,8 @@
       <c r="E66" s="4">
         <v>1</v>
       </c>
-      <c r="F66">
-        <f>VLOOKUP(A66,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4125,12 +3623,8 @@
       <c r="E67" s="4">
         <v>1.5</v>
       </c>
-      <c r="F67">
-        <f>VLOOKUP(A67,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -4146,12 +3640,8 @@
       <c r="E68" s="4">
         <v>2</v>
       </c>
-      <c r="F68">
-        <f>VLOOKUP(A68,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -4167,12 +3657,8 @@
       <c r="E69" s="4">
         <v>1.5</v>
       </c>
-      <c r="F69">
-        <f>VLOOKUP(A69,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -4188,12 +3674,8 @@
       <c r="E70" s="4">
         <v>2</v>
       </c>
-      <c r="F70">
-        <f>VLOOKUP(A70,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4209,12 +3691,8 @@
       <c r="E71" s="4">
         <v>1.5</v>
       </c>
-      <c r="F71">
-        <f>VLOOKUP(A71,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -4230,12 +3708,8 @@
       <c r="E72" s="4">
         <v>2</v>
       </c>
-      <c r="F72">
-        <f>VLOOKUP(A72,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -4251,12 +3725,8 @@
       <c r="E73" s="4">
         <v>1.5</v>
       </c>
-      <c r="F73">
-        <f>VLOOKUP(A73,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -4272,12 +3742,8 @@
       <c r="E74" s="4">
         <v>1.5</v>
       </c>
-      <c r="F74">
-        <f>VLOOKUP(A74,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -4293,12 +3759,8 @@
       <c r="E75" s="4">
         <v>1.5</v>
       </c>
-      <c r="F75">
-        <f>VLOOKUP(A75,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -4314,12 +3776,8 @@
       <c r="E76" s="4">
         <v>1</v>
       </c>
-      <c r="F76">
-        <f>VLOOKUP(A76,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -4335,12 +3793,8 @@
       <c r="E77" s="4">
         <v>1</v>
       </c>
-      <c r="F77">
-        <f>VLOOKUP(A77,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -4356,12 +3810,8 @@
       <c r="E78" s="4">
         <v>0.5</v>
       </c>
-      <c r="F78">
-        <f>VLOOKUP(A78,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -4377,12 +3827,8 @@
       <c r="E79" s="4">
         <v>2.5</v>
       </c>
-      <c r="F79">
-        <f>VLOOKUP(A79,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4398,12 +3844,8 @@
       <c r="E80" s="4">
         <v>2</v>
       </c>
-      <c r="F80">
-        <f>VLOOKUP(A80,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -4419,12 +3861,8 @@
       <c r="E81" s="4">
         <v>1.5</v>
       </c>
-      <c r="F81">
-        <f>VLOOKUP(A81,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4440,12 +3878,8 @@
       <c r="E82" s="4">
         <v>4</v>
       </c>
-      <c r="F82">
-        <f>VLOOKUP(A82,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -4461,12 +3895,8 @@
       <c r="E83" s="4">
         <v>1</v>
       </c>
-      <c r="F83">
-        <f>VLOOKUP(A83,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -4482,12 +3912,8 @@
       <c r="E84" s="4">
         <v>2</v>
       </c>
-      <c r="F84">
-        <f>VLOOKUP(A84,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -4503,12 +3929,8 @@
       <c r="E85" s="4">
         <v>1.5</v>
       </c>
-      <c r="F85">
-        <f>VLOOKUP(A85,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4524,12 +3946,8 @@
       <c r="E86" s="4">
         <v>1</v>
       </c>
-      <c r="F86">
-        <f>VLOOKUP(A86,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -4545,12 +3963,8 @@
       <c r="E87" s="4">
         <v>2</v>
       </c>
-      <c r="F87">
-        <f>VLOOKUP(A87,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -4566,12 +3980,8 @@
       <c r="E88" s="4">
         <v>1</v>
       </c>
-      <c r="F88">
-        <f>VLOOKUP(A88,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -4587,12 +3997,8 @@
       <c r="E89" s="4">
         <v>2</v>
       </c>
-      <c r="F89">
-        <f>VLOOKUP(A89,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -4608,12 +4014,8 @@
       <c r="E90" s="4">
         <v>1</v>
       </c>
-      <c r="F90">
-        <f>VLOOKUP(A90,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -4629,12 +4031,8 @@
       <c r="E91" s="4">
         <v>2</v>
       </c>
-      <c r="F91">
-        <f>VLOOKUP(A91,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -4650,12 +4048,8 @@
       <c r="E92" s="4">
         <v>2</v>
       </c>
-      <c r="F92">
-        <f>VLOOKUP(A92,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -4671,12 +4065,8 @@
       <c r="E93" s="4">
         <v>1.5</v>
       </c>
-      <c r="F93">
-        <f>VLOOKUP(A93,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -4692,12 +4082,8 @@
       <c r="E94" s="4">
         <v>1</v>
       </c>
-      <c r="F94">
-        <f>VLOOKUP(A94,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4713,12 +4099,8 @@
       <c r="E95" s="4">
         <v>0.5</v>
       </c>
-      <c r="F95">
-        <f>VLOOKUP(A95,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -4734,12 +4116,8 @@
       <c r="E96" s="4">
         <v>1</v>
       </c>
-      <c r="F96">
-        <f>VLOOKUP(A96,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4755,12 +4133,8 @@
       <c r="E97" s="4">
         <v>1</v>
       </c>
-      <c r="F97">
-        <f>VLOOKUP(A97,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -4776,12 +4150,8 @@
       <c r="E98" s="4">
         <v>2</v>
       </c>
-      <c r="F98">
-        <f>VLOOKUP(A98,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -4797,12 +4167,8 @@
       <c r="E99" s="4">
         <v>1</v>
       </c>
-      <c r="F99">
-        <f>VLOOKUP(A99,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -4818,12 +4184,8 @@
       <c r="E100" s="4">
         <v>2</v>
       </c>
-      <c r="F100">
-        <f>VLOOKUP(A100,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -4839,12 +4201,8 @@
       <c r="E101" s="4">
         <v>2</v>
       </c>
-      <c r="F101">
-        <f>VLOOKUP(A101,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -4860,12 +4218,8 @@
       <c r="E102" s="4">
         <v>2</v>
       </c>
-      <c r="F102">
-        <f>VLOOKUP(A102,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -4881,12 +4235,8 @@
       <c r="E103" s="4">
         <v>2</v>
       </c>
-      <c r="F103">
-        <f>VLOOKUP(A103,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -4902,12 +4252,8 @@
       <c r="E104" s="4">
         <v>1</v>
       </c>
-      <c r="F104">
-        <f>VLOOKUP(A104,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -4923,12 +4269,8 @@
       <c r="E105" s="4">
         <v>2</v>
       </c>
-      <c r="F105">
-        <f>VLOOKUP(A105,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4944,12 +4286,8 @@
       <c r="E106" s="4">
         <v>1</v>
       </c>
-      <c r="F106">
-        <f>VLOOKUP(A106,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -4965,12 +4303,8 @@
       <c r="E107" s="4">
         <v>2</v>
       </c>
-      <c r="F107">
-        <f>VLOOKUP(A107,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -4986,12 +4320,8 @@
       <c r="E108" s="4">
         <v>2</v>
       </c>
-      <c r="F108">
-        <f>VLOOKUP(A108,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -5007,12 +4337,8 @@
       <c r="E109" s="4">
         <v>2.5</v>
       </c>
-      <c r="F109">
-        <f>VLOOKUP(A109,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -5028,12 +4354,8 @@
       <c r="E110" s="4">
         <v>2</v>
       </c>
-      <c r="F110">
-        <f>VLOOKUP(A110,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -5049,12 +4371,8 @@
       <c r="E111" s="4">
         <v>2</v>
       </c>
-      <c r="F111">
-        <f>VLOOKUP(A111,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -5070,12 +4388,8 @@
       <c r="E112" s="4">
         <v>1</v>
       </c>
-      <c r="F112">
-        <f>VLOOKUP(A112,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -5091,12 +4405,8 @@
       <c r="E113" s="4">
         <v>2.5</v>
       </c>
-      <c r="F113">
-        <f>VLOOKUP(A113,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -5112,12 +4422,8 @@
       <c r="E114" s="4">
         <v>1</v>
       </c>
-      <c r="F114">
-        <f>VLOOKUP(A114,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -5133,12 +4439,8 @@
       <c r="E115" s="4">
         <v>2</v>
       </c>
-      <c r="F115">
-        <f>VLOOKUP(A115,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -5154,12 +4456,8 @@
       <c r="E116" s="4">
         <v>0.5</v>
       </c>
-      <c r="F116">
-        <f>VLOOKUP(A116,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -5175,12 +4473,8 @@
       <c r="E117" s="4">
         <v>4</v>
       </c>
-      <c r="F117">
-        <f>VLOOKUP(A117,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5196,12 +4490,8 @@
       <c r="E118" s="4">
         <v>4</v>
       </c>
-      <c r="F118">
-        <f>VLOOKUP(A118,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -5217,12 +4507,8 @@
       <c r="E119" s="4">
         <v>2</v>
       </c>
-      <c r="F119">
-        <f>VLOOKUP(A119,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -5238,12 +4524,8 @@
       <c r="E120" s="4">
         <v>4</v>
       </c>
-      <c r="F120">
-        <f>VLOOKUP(A120,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -5259,12 +4541,8 @@
       <c r="E121" s="4">
         <v>2.5</v>
       </c>
-      <c r="F121">
-        <f>VLOOKUP(A121,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -5280,12 +4558,8 @@
       <c r="E122" s="4">
         <v>1</v>
       </c>
-      <c r="F122">
-        <f>VLOOKUP(A122,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -5301,12 +4575,8 @@
       <c r="E123" s="4">
         <v>2.5</v>
       </c>
-      <c r="F123">
-        <f>VLOOKUP(A123,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -5322,12 +4592,8 @@
       <c r="E124" s="4">
         <v>2</v>
       </c>
-      <c r="F124">
-        <f>VLOOKUP(A124,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -5343,12 +4609,8 @@
       <c r="E125" s="4">
         <v>0.5</v>
       </c>
-      <c r="F125">
-        <f>VLOOKUP(A125,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5364,12 +4626,8 @@
       <c r="E126" s="4">
         <v>0.5</v>
       </c>
-      <c r="F126">
-        <f>VLOOKUP(A126,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -5385,12 +4643,8 @@
       <c r="E127" s="4">
         <v>2</v>
       </c>
-      <c r="F127">
-        <f>VLOOKUP(A127,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -5406,12 +4660,8 @@
       <c r="E128" s="4">
         <v>0.5</v>
       </c>
-      <c r="F128">
-        <f>VLOOKUP(A128,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -5427,12 +4677,8 @@
       <c r="E129" s="4">
         <v>1</v>
       </c>
-      <c r="F129">
-        <f>VLOOKUP(A129,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -5448,12 +4694,8 @@
       <c r="E130" s="4">
         <v>1.5</v>
       </c>
-      <c r="F130">
-        <f>VLOOKUP(A130,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -5469,12 +4711,8 @@
       <c r="E131" s="4">
         <v>2</v>
       </c>
-      <c r="F131">
-        <f>VLOOKUP(A131,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -5490,12 +4728,8 @@
       <c r="E132" s="4">
         <v>2</v>
       </c>
-      <c r="F132">
-        <f>VLOOKUP(A132,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -5511,12 +4745,8 @@
       <c r="E133" s="4">
         <v>1.5</v>
       </c>
-      <c r="F133">
-        <f>VLOOKUP(A133,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -5532,12 +4762,8 @@
       <c r="E134" s="4">
         <v>2.5</v>
       </c>
-      <c r="F134">
-        <f>VLOOKUP(A134,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -5553,12 +4779,8 @@
       <c r="E135" s="4">
         <v>2</v>
       </c>
-      <c r="F135">
-        <f>VLOOKUP(A135,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -5574,12 +4796,8 @@
       <c r="E136" s="4">
         <v>2</v>
       </c>
-      <c r="F136">
-        <f>VLOOKUP(A136,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -5595,12 +4813,8 @@
       <c r="E137" s="4">
         <v>1.5</v>
       </c>
-      <c r="F137">
-        <f>VLOOKUP(A137,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5616,12 +4830,8 @@
       <c r="E138" s="4">
         <v>4</v>
       </c>
-      <c r="F138">
-        <f>VLOOKUP(A138,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -5637,12 +4847,8 @@
       <c r="E139" s="4">
         <v>2</v>
       </c>
-      <c r="F139">
-        <f>VLOOKUP(A139,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -5658,12 +4864,8 @@
       <c r="E140" s="4">
         <v>2</v>
       </c>
-      <c r="F140">
-        <f>VLOOKUP(A140,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -5679,12 +4881,8 @@
       <c r="E141" s="4">
         <v>0.5</v>
       </c>
-      <c r="F141">
-        <f>VLOOKUP(A141,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -5700,12 +4898,8 @@
       <c r="E142" s="4">
         <v>1</v>
       </c>
-      <c r="F142">
-        <f>VLOOKUP(A142,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -5721,12 +4915,8 @@
       <c r="E143" s="4">
         <v>1</v>
       </c>
-      <c r="F143">
-        <f>VLOOKUP(A143,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -5742,12 +4932,8 @@
       <c r="E144" s="4">
         <v>1.5</v>
       </c>
-      <c r="F144">
-        <f>VLOOKUP(A144,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -5763,12 +4949,8 @@
       <c r="E145" s="4">
         <v>2</v>
       </c>
-      <c r="F145">
-        <f>VLOOKUP(A145,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -5784,12 +4966,8 @@
       <c r="E146" s="4">
         <v>1.5</v>
       </c>
-      <c r="F146">
-        <f>VLOOKUP(A146,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -5805,12 +4983,8 @@
       <c r="E147" s="4">
         <v>2</v>
       </c>
-      <c r="F147">
-        <f>VLOOKUP(A147,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -5826,12 +5000,8 @@
       <c r="E148" s="4">
         <v>1</v>
       </c>
-      <c r="F148">
-        <f>VLOOKUP(A148,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -5847,12 +5017,8 @@
       <c r="E149" s="4">
         <v>1.5</v>
       </c>
-      <c r="F149">
-        <f>VLOOKUP(A149,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -5868,12 +5034,8 @@
       <c r="E150" s="4">
         <v>2.5</v>
       </c>
-      <c r="F150">
-        <f>VLOOKUP(A150,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -5889,12 +5051,8 @@
       <c r="E151" s="4">
         <v>4</v>
       </c>
-      <c r="F151">
-        <f>VLOOKUP(A151,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -5910,12 +5068,8 @@
       <c r="E152" s="4">
         <v>4</v>
       </c>
-      <c r="F152">
-        <f>VLOOKUP(A152,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -5931,12 +5085,8 @@
       <c r="E153" s="4">
         <v>2.5</v>
       </c>
-      <c r="F153">
-        <f>VLOOKUP(A153,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -5952,12 +5102,8 @@
       <c r="E154" s="4">
         <v>2</v>
       </c>
-      <c r="F154">
-        <f>VLOOKUP(A154,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -5973,12 +5119,8 @@
       <c r="E155" s="4">
         <v>0.5</v>
       </c>
-      <c r="F155">
-        <f>VLOOKUP(A155,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -5994,12 +5136,8 @@
       <c r="E156" s="4">
         <v>2.5</v>
       </c>
-      <c r="F156">
-        <f>VLOOKUP(A156,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -6015,12 +5153,8 @@
       <c r="E157" s="4">
         <v>0.5</v>
       </c>
-      <c r="F157">
-        <f>VLOOKUP(A157,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -6036,12 +5170,8 @@
       <c r="E158" s="4">
         <v>4</v>
       </c>
-      <c r="F158">
-        <f>VLOOKUP(A158,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -6057,12 +5187,8 @@
       <c r="E159" s="4">
         <v>2</v>
       </c>
-      <c r="F159">
-        <f>VLOOKUP(A159,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -6078,12 +5204,8 @@
       <c r="E160" s="4">
         <v>1.5</v>
       </c>
-      <c r="F160">
-        <f>VLOOKUP(A160,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -6099,12 +5221,8 @@
       <c r="E161" s="4">
         <v>1</v>
       </c>
-      <c r="F161">
-        <f>VLOOKUP(A161,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -6120,12 +5238,8 @@
       <c r="E162" s="4">
         <v>1.5</v>
       </c>
-      <c r="F162">
-        <f>VLOOKUP(A162,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -6141,12 +5255,8 @@
       <c r="E163" s="4">
         <v>1</v>
       </c>
-      <c r="F163">
-        <f>VLOOKUP(A163,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -6162,12 +5272,8 @@
       <c r="E164" s="4">
         <v>2.5</v>
       </c>
-      <c r="F164">
-        <f>VLOOKUP(A164,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -6183,12 +5289,8 @@
       <c r="E165" s="4">
         <v>4</v>
       </c>
-      <c r="F165">
-        <f>VLOOKUP(A165,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -6204,12 +5306,8 @@
       <c r="E166" s="4">
         <v>2.5</v>
       </c>
-      <c r="F166">
-        <f>VLOOKUP(A166,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -6225,12 +5323,8 @@
       <c r="E167" s="4">
         <v>2</v>
       </c>
-      <c r="F167">
-        <f>VLOOKUP(A167,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -6246,12 +5340,8 @@
       <c r="E168" s="4">
         <v>1.5</v>
       </c>
-      <c r="F168">
-        <f>VLOOKUP(A168,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6267,12 +5357,8 @@
       <c r="E169" s="4">
         <v>2.5</v>
       </c>
-      <c r="F169">
-        <f>VLOOKUP(A169,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -6288,12 +5374,8 @@
       <c r="E170" s="4">
         <v>1</v>
       </c>
-      <c r="F170">
-        <f>VLOOKUP(A170,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -6309,12 +5391,8 @@
       <c r="E171" s="4">
         <v>1.5</v>
       </c>
-      <c r="F171">
-        <f>VLOOKUP(A171,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -6330,12 +5408,8 @@
       <c r="E172" s="4">
         <v>1.5</v>
       </c>
-      <c r="F172">
-        <f>VLOOKUP(A172,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -6351,12 +5425,8 @@
       <c r="E173" s="4">
         <v>1</v>
       </c>
-      <c r="F173">
-        <f>VLOOKUP(A173,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -6372,12 +5442,8 @@
       <c r="E174" s="4">
         <v>2</v>
       </c>
-      <c r="F174">
-        <f>VLOOKUP(A174,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -6393,12 +5459,8 @@
       <c r="E175" s="4">
         <v>2.5</v>
       </c>
-      <c r="F175">
-        <f>VLOOKUP(A175,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -6414,12 +5476,8 @@
       <c r="E176" s="4">
         <v>2.5</v>
       </c>
-      <c r="F176">
-        <f>VLOOKUP(A176,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -6435,12 +5493,8 @@
       <c r="E177" s="4">
         <v>2.5</v>
       </c>
-      <c r="F177">
-        <f>VLOOKUP(A177,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -6456,12 +5510,8 @@
       <c r="E178" s="4">
         <v>2</v>
       </c>
-      <c r="F178">
-        <f>VLOOKUP(A178,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -6477,12 +5527,8 @@
       <c r="E179" s="4">
         <v>2.5</v>
       </c>
-      <c r="F179">
-        <f>VLOOKUP(A179,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -6498,12 +5544,8 @@
       <c r="E180" s="4">
         <v>1</v>
       </c>
-      <c r="F180">
-        <f>VLOOKUP(A180,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -6519,12 +5561,8 @@
       <c r="E181" s="4">
         <v>0.5</v>
       </c>
-      <c r="F181">
-        <f>VLOOKUP(A181,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -6540,12 +5578,8 @@
       <c r="E182" s="4">
         <v>2</v>
       </c>
-      <c r="F182">
-        <f>VLOOKUP(A182,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -6561,12 +5595,8 @@
       <c r="E183" s="4">
         <v>4</v>
       </c>
-      <c r="F183">
-        <f>VLOOKUP(A183,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -6582,12 +5612,8 @@
       <c r="E184" s="4">
         <v>2.5</v>
       </c>
-      <c r="F184">
-        <f>VLOOKUP(A184,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -6603,12 +5629,8 @@
       <c r="E185" s="4">
         <v>1</v>
       </c>
-      <c r="F185">
-        <f>VLOOKUP(A185,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -6624,12 +5646,8 @@
       <c r="E186" s="4">
         <v>2</v>
       </c>
-      <c r="F186">
-        <f>VLOOKUP(A186,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -6645,12 +5663,8 @@
       <c r="E187" s="4">
         <v>1</v>
       </c>
-      <c r="F187">
-        <f>VLOOKUP(A187,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -6666,12 +5680,8 @@
       <c r="E188" s="4">
         <v>2.5</v>
       </c>
-      <c r="F188">
-        <f>VLOOKUP(A188,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -6687,12 +5697,8 @@
       <c r="E189" s="4">
         <v>0.5</v>
       </c>
-      <c r="F189">
-        <f>VLOOKUP(A189,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -6708,12 +5714,8 @@
       <c r="E190" s="4">
         <v>2.5</v>
       </c>
-      <c r="F190">
-        <f>VLOOKUP(A190,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -6729,12 +5731,8 @@
       <c r="E191" s="4">
         <v>1</v>
       </c>
-      <c r="F191">
-        <f>VLOOKUP(A191,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -6750,12 +5748,8 @@
       <c r="E192" s="4">
         <v>0.5</v>
       </c>
-      <c r="F192">
-        <f>VLOOKUP(A192,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -6771,12 +5765,8 @@
       <c r="E193" s="4">
         <v>2.5</v>
       </c>
-      <c r="F193">
-        <f>VLOOKUP(A193,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -6792,12 +5782,8 @@
       <c r="E194" s="4">
         <v>4</v>
       </c>
-      <c r="F194">
-        <f>VLOOKUP(A194,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -6813,12 +5799,8 @@
       <c r="E195" s="4">
         <v>2</v>
       </c>
-      <c r="F195">
-        <f>VLOOKUP(A195,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -6834,12 +5816,8 @@
       <c r="E196" s="4">
         <v>0.5</v>
       </c>
-      <c r="F196">
-        <f>VLOOKUP(A196,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -6855,12 +5833,8 @@
       <c r="E197" s="4">
         <v>2.5</v>
       </c>
-      <c r="F197">
-        <f>VLOOKUP(A197,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -6876,12 +5850,8 @@
       <c r="E198" s="4">
         <v>1.5</v>
       </c>
-      <c r="F198">
-        <f>VLOOKUP(A198,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -6897,12 +5867,8 @@
       <c r="E199" s="4">
         <v>2.5</v>
       </c>
-      <c r="F199">
-        <f>VLOOKUP(A199,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -6918,12 +5884,8 @@
       <c r="E200" s="4">
         <v>2.5</v>
       </c>
-      <c r="F200">
-        <f>VLOOKUP(A200,Calories!$A$1:$B$15,2,FALSE)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C201" s="4"/>
     </row>
   </sheetData>
@@ -6948,19 +5910,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6968,7 +5930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6976,7 +5938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -6984,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -6992,7 +5954,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -7000,7 +5962,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -7008,7 +5970,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7016,7 +5978,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -7024,7 +5986,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -7032,7 +5994,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -7040,7 +6002,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -7048,7 +6010,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -7056,7 +6018,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -7064,7 +6026,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -7072,7 +6034,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -7080,46 +6042,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18">
-        <f>MATCH("Hamburger",A2:A15,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <f>INDEX(A1:B15,3,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="str">
-        <f ca="1">OFFSET(A1,3,0)</f>
-        <v>Chocolate Bar</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <f>SMALL(B2:B15,3)</f>
-        <v>150</v>
-      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7129,34 +6072,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -7164,7 +6109,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -7172,7 +6117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -7180,7 +6125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -7188,7 +6133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -7196,7 +6141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -7204,7 +6149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -7212,7 +6157,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -7220,7 +6165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -7228,7 +6173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -7236,7 +6181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -7244,7 +6189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -7252,7 +6197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -7260,7 +6205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -7268,7 +6213,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -7288,291 +6233,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <f t="array" ref="D2">SUMPRODUCT(B2:B15,TRANSPOSE('Fee Schedule'!B2:O2))</f>
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>32.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -7583,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7594,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -7605,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -7616,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -7627,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7638,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -7649,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -7660,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -7668,10 +6355,10 @@
         <v>280</v>
       </c>
       <c r="C10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -7679,10 +6366,10 @@
         <v>560</v>
       </c>
       <c r="C11" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -7693,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -7701,10 +6388,10 @@
         <v>500</v>
       </c>
       <c r="C13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -7715,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -7726,34 +6413,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="12">
         <f>SUM(C2:C15)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="12">
         <f>SUMPRODUCT(B2:B15,C2:C15)</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
     </row>
   </sheetData>
